--- a/List of papers.xlsx
+++ b/List of papers.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://antarosmedical-my.sharepoint.com/personal/mauro_pappaterra_antarosmedical_com/Documents/P/ITSC2023/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://antarosmedical-my.sharepoint.com/personal/mauro_pappaterra_antarosmedical_com/Documents/P/ITSC2023/List of Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A897B4D-9CFF-45D0-8A10-A50B3ED3DD3D}"/>
+  <xr:revisionPtr revIDLastSave="367" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FDB503-AB64-457C-BC98-6D239A97EF61}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="List of Papers" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
   <si>
     <t>Reference Number</t>
   </si>
@@ -411,18 +411,12 @@
     <t>Facing Erosion Identification in Railway Lines Using Pixel-Wise Deep-Based Approaches</t>
   </si>
   <si>
-    <t>Nogueira, K.; L. S. Machado, G.; H. T. Gama, P.; C. V. da Silva, C.; Balaniuk, R.; A. dos Santos, J.</t>
-  </si>
-  <si>
     <t>[60]</t>
   </si>
   <si>
     <t>Detecting Embankment Instability Using Measurable Track Geometry Data</t>
   </si>
   <si>
-    <t>Kite, D.; Siino, G.; Audley, M.</t>
-  </si>
-  <si>
     <t>[61]</t>
   </si>
   <si>
@@ -438,9 +432,6 @@
     <t>A Rail-Temperature-Prediction Model Based on Machine Learning: Warning of Train-Speed Restrictions Using Weather Forecasting</t>
   </si>
   <si>
-    <t>Hong, S.; Park, C.; Cho, S.</t>
-  </si>
-  <si>
     <t>[63]</t>
   </si>
   <si>
@@ -465,9 +456,6 @@
     <t>Real-Time 3D Multi-Object Detection and Localization Based on Deep Learning for Road and Railway Smart Mobility</t>
   </si>
   <si>
-    <t>Mauri, A.; Khemmar, R.; Decoux, B.; Haddad, M.; Boutteau, R.</t>
-  </si>
-  <si>
     <t>[66]</t>
   </si>
   <si>
@@ -492,7 +480,73 @@
     <t>Utilizing an Adaptive Neuro-Fuzzy Inference System (ANFIS) for Overcrowding Level Risk Assessment in Railway Stations</t>
   </si>
   <si>
-    <t>Alawad, H.; An, M.; Kaewunruen, S.</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>[55]</t>
+  </si>
+  <si>
+    <t>[56]</t>
+  </si>
+  <si>
+    <t>[57]</t>
+  </si>
+  <si>
+    <t>[58]</t>
+  </si>
+  <si>
+    <t>Classification of railway level crossing barrier and light signalling system using YOLOv3</t>
+  </si>
+  <si>
+    <t>Pavel Sikora, Martin Kiac, Malay Kishore Dutta</t>
+  </si>
+  <si>
+    <t>P. Sikora, M. Kiac, M. K. Dutta</t>
+  </si>
+  <si>
+    <t>Real Time Image Classification Based Smart Railway Platform Using Convolutional Neural Network</t>
+  </si>
+  <si>
+    <t>Shiva Shankar, Mahaveer Penna, Dileep Reddy Bolla, Keshavamurthy, Jijesh J. J., Navyashree H. A.</t>
+  </si>
+  <si>
+    <t>Acoustic-Based Train Arrival Detection Using Convolutional Neural Networks With Attention</t>
+  </si>
+  <si>
+    <t>Year Published</t>
+  </si>
+  <si>
+    <t>D. Kite, G. Siino, M. Audley</t>
+  </si>
+  <si>
+    <t>S. Hong, C. Park, S. Cho</t>
+  </si>
+  <si>
+    <t>A. Mauri, R. Khemmar, B. Decoux, M. Haddad, R. Boutteau</t>
+  </si>
+  <si>
+    <t>H. Alawad, M. An, S. Kaewunruen</t>
+  </si>
+  <si>
+    <t>V. T. Tran, W. H. Tsai</t>
+  </si>
+  <si>
+    <t>K. Nogueira, G. L. S. Machado, P. H. T. Gama, C. C. V. da Silva, R. C. Balaniuk, J. A. dos Santos</t>
   </si>
 </sst>
 </file>
@@ -534,11 +588,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -553,6 +604,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -569,6 +626,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -834,599 +895,1022 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.88671875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="72.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12" style="6" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="72.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="6" customWidth="1"/>
+    <col min="6" max="9" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="E1" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6">
+        <v>2020</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6">
+        <v>2022</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6">
+        <v>2022</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6">
+        <v>2020</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="E8" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6">
+        <v>2022</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6">
+        <v>2008</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="E14" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+      <c r="E15" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6">
+        <v>2010</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="E16" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
+      <c r="F17" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="F18" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6">
+        <v>2022</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+      <c r="F19" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+      <c r="F20" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+      <c r="F21" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="F22" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="G23" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+      <c r="G24" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
+      <c r="G25" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
+      <c r="G26" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
+      <c r="G27" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
+      <c r="G28" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
+      <c r="G29" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+      <c r="G30" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+      <c r="G31" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="G32" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="G33" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="G34" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="G35" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+      <c r="G36" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+      <c r="G37" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D38" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="G38" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+      <c r="G39" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+      <c r="G40" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+      <c r="G41" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="G42" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
+      <c r="G43" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C45" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C47" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B48" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C48" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
+      <c r="B49" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C49" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="B50" s="7" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
+      <c r="C50" s="3">
+        <v>2019</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="H50" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
+      <c r="C51" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B52" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C52" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+      <c r="H52" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B53" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C53" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
+      <c r="H53" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B54" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C54" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
+      <c r="B55" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="C55" s="3">
+        <v>2016</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="I55" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
+      <c r="B56" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="C56" s="3">
+        <v>2022</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="I56" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+      <c r="B57" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="6" t="s">
+      <c r="C57" s="3">
+        <v>2020</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="I57" s="6" t="s">
         <v>155</v>
       </c>
     </row>

--- a/List of papers.xlsx
+++ b/List of papers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://antarosmedical-my.sharepoint.com/personal/mauro_pappaterra_antarosmedical_com/Documents/P/ITSC2023/List of Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="367" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34FDB503-AB64-457C-BC98-6D239A97EF61}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1698B69-4D03-4471-B6DD-065BC2813605}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Papers" sheetId="1" r:id="rId1"/>
@@ -553,7 +553,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,8 +628,192 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274433</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC3B86AD-5654-3519-70F8-628B8FF22DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14640374" y="498774"/>
+          <a:ext cx="6594773" cy="1832050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Railway Applications</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>A = Surveillance and online security monitoring</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>B = Detection of obstacles and foreign oobjects in the railway track</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>C = Intrusion and trespassing detection</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>D = Detection of natural threats</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>E = Situational awareness and online risk assesement</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-SE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -897,12 +1081,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="12" style="6" customWidth="1"/>
     <col min="2" max="2" width="67.6640625" style="4" customWidth="1"/>
@@ -912,7 +1096,7 @@
     <col min="6" max="9" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,7 +1125,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="34.799999999999997" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -958,7 +1142,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="25.2" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -975,7 +1159,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.2" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -995,7 +1179,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="22.2" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1012,7 +1196,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="38.4" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1029,7 +1213,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="35.4" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1049,7 +1233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="37.200000000000003" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1066,7 +1250,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="41.4" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1083,7 +1267,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="23.4" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1103,7 +1287,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="34.799999999999997" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1123,7 +1307,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="24" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1143,7 +1327,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="32.4" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1160,7 +1344,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="24" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1180,7 +1364,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="61.2" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1200,7 +1384,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="23.4" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
@@ -1217,7 +1401,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="31.8" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
@@ -1234,7 +1418,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="33.6" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
@@ -1251,7 +1435,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="34.799999999999997" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -1268,7 +1452,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="36.6" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
@@ -1285,7 +1469,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="31.2" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -1302,7 +1486,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="33" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
@@ -1319,7 +1503,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="36.6" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
@@ -1336,7 +1520,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="32.4" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>69</v>
       </c>
@@ -1353,7 +1537,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="34.799999999999997" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
@@ -1370,7 +1554,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="36" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
@@ -1387,7 +1571,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="34.799999999999997" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>78</v>
       </c>
@@ -1404,7 +1588,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="31.2" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>81</v>
       </c>
@@ -1421,7 +1605,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="34.799999999999997" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
@@ -1438,7 +1622,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="35.4" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
@@ -1455,7 +1639,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="35.4" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>88</v>
       </c>
@@ -1472,7 +1656,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="33.6" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
@@ -1489,7 +1673,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="36.6" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>94</v>
       </c>
@@ -1506,7 +1690,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="19.2" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
@@ -1523,7 +1707,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="19.8" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
@@ -1540,7 +1724,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="20.399999999999999" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
@@ -1557,7 +1741,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="36.6" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
@@ -1574,7 +1758,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="34.799999999999997" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
@@ -1591,7 +1775,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="23.4" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>112</v>
       </c>
@@ -1608,7 +1792,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="25.8" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>115</v>
       </c>
@@ -1625,7 +1809,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="24" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>118</v>
       </c>
@@ -1642,7 +1826,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="24.6" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>121</v>
       </c>
@@ -1659,7 +1843,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="34.200000000000003" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>123</v>
       </c>
@@ -1676,7 +1860,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="34.200000000000003" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>157</v>
       </c>
@@ -1693,7 +1877,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="34.200000000000003" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>158</v>
       </c>
@@ -1710,7 +1894,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="34.200000000000003" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>159</v>
       </c>
@@ -1727,7 +1911,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="34.200000000000003" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>160</v>
       </c>
@@ -1744,7 +1928,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="42.6" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>126</v>
       </c>
@@ -1761,7 +1945,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="25.8" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>128</v>
       </c>
@@ -1778,7 +1962,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="33" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>130</v>
       </c>
@@ -1795,7 +1979,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="32.4" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>133</v>
       </c>
@@ -1812,7 +1996,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="28.8" customHeight="1">
       <c r="A52" s="6" t="s">
         <v>135</v>
       </c>
@@ -1829,7 +2013,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="34.200000000000003" customHeight="1">
       <c r="A53" s="6" t="s">
         <v>138</v>
       </c>
@@ -1846,7 +2030,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="34.799999999999997" customHeight="1">
       <c r="A54" s="6" t="s">
         <v>141</v>
       </c>
@@ -1863,7 +2047,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="39" customHeight="1">
       <c r="A55" s="6" t="s">
         <v>143</v>
       </c>
@@ -1880,7 +2064,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="36.6" customHeight="1">
       <c r="A56" s="6" t="s">
         <v>146</v>
       </c>
@@ -1897,7 +2081,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="36.6" customHeight="1">
       <c r="A57" s="6" t="s">
         <v>149</v>
       </c>
@@ -1917,5 +2101,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/List of papers.xlsx
+++ b/List of papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://antarosmedical-my.sharepoint.com/personal/mauro_pappaterra_antarosmedical_com/Documents/P/ITSC2023/List of Papers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="373" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1698B69-4D03-4471-B6DD-065BC2813605}"/>
+  <xr:revisionPtr revIDLastSave="397" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A884D1CB-7CF1-4909-B841-E7B593BAC174}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1920" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List of Papers" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
   <si>
     <t>Reference Number</t>
   </si>
@@ -516,9 +516,6 @@
     <t>Pavel Sikora, Martin Kiac, Malay Kishore Dutta</t>
   </si>
   <si>
-    <t>P. Sikora, M. Kiac, M. K. Dutta</t>
-  </si>
-  <si>
     <t>Real Time Image Classification Based Smart Railway Platform Using Convolutional Neural Network</t>
   </si>
   <si>
@@ -547,13 +544,28 @@
   </si>
   <si>
     <t>K. Nogueira, G. L. S. Machado, P. H. T. Gama, C. C. V. da Silva, R. C. Balaniuk, J. A. dos Santos</t>
+  </si>
+  <si>
+    <t>[69]</t>
+  </si>
+  <si>
+    <t>Millimeter-Wave Communications with Beamforming for UAV-Assisted Railway Monitoring System</t>
+  </si>
+  <si>
+    <t>Shiyu Su</t>
+  </si>
+  <si>
+    <t>The contribution of machine learning to analyze and evaluate the safety of automated transport systems</t>
+  </si>
+  <si>
+    <t>A. Maalel, W. Mhiri, and H. Hadj-Mabrouk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -610,6 +622,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,14 +1094,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="6" customWidth="1"/>
     <col min="2" max="2" width="67.6640625" style="4" customWidth="1"/>
@@ -1096,7 +1111,7 @@
     <col min="6" max="9" width="8.88671875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.8">
+    <row r="1" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>23</v>
@@ -1125,7 +1140,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="34.799999999999997" customHeight="1">
+    <row r="2" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="25.2" customHeight="1">
+    <row r="3" spans="1:9" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1174,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.2" customHeight="1">
+    <row r="4" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -1179,7 +1194,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.2" customHeight="1">
+    <row r="5" spans="1:9" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -1196,7 +1211,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="38.4" customHeight="1">
+    <row r="6" spans="1:9" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="35.4" customHeight="1">
+    <row r="7" spans="1:9" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -1233,7 +1248,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="37.200000000000003" customHeight="1">
+    <row r="8" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1265,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="41.4" customHeight="1">
+    <row r="9" spans="1:9" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1267,7 +1282,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="23.4" customHeight="1">
+    <row r="10" spans="1:9" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1287,7 +1302,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="34.799999999999997" customHeight="1">
+    <row r="11" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1322,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1">
+    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>33</v>
       </c>
@@ -1327,7 +1342,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="32.4" customHeight="1">
+    <row r="13" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -1344,7 +1359,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1">
+    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1364,7 +1379,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="61.2" customHeight="1">
+    <row r="15" spans="1:9" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
@@ -1384,500 +1399,500 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="23.4" customHeight="1">
+    <row r="16" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2010</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>47</v>
+      <c r="B16" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.8" customHeight="1">
+    <row r="17" spans="1:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="6">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="33.6" customHeight="1">
+        <v>47</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="34.799999999999997" customHeight="1">
+    <row r="19" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="6">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="36.6" customHeight="1">
+    <row r="20" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="3">
+        <v>55</v>
+      </c>
+      <c r="C20" s="6">
         <v>2022</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.2" customHeight="1">
+    <row r="21" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C21" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="33" customHeight="1">
+    <row r="22" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F22" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="36.6" customHeight="1">
+    <row r="23" spans="1:7" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32.4" customHeight="1">
+        <v>65</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="34.799999999999997" customHeight="1">
+    <row r="25" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="3">
         <v>2022</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="36" customHeight="1">
+    <row r="26" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="34.799999999999997" customHeight="1">
+    <row r="27" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="31.2" customHeight="1">
+    <row r="28" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="34.799999999999997" customHeight="1">
+    <row r="29" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C29" s="3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="35.4" customHeight="1">
+    <row r="30" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C30" s="3">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="35.4" customHeight="1">
+    <row r="31" spans="1:7" ht="35.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C31" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="33.6" customHeight="1">
+    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C32" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="36.6" customHeight="1">
+    <row r="33" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="19.2" customHeight="1">
+    <row r="34" spans="1:8" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C34" s="3">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="19.8" customHeight="1">
+    <row r="35" spans="1:8" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C35" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.399999999999999" customHeight="1">
+    <row r="36" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C36" s="3">
         <v>2020</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="36.6" customHeight="1">
+    <row r="37" spans="1:8" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C37" s="3">
         <v>2020</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="34.799999999999997" customHeight="1">
+    <row r="38" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C38" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="23.4" customHeight="1">
+    <row r="39" spans="1:8" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C39" s="3">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="25.8" customHeight="1">
+    <row r="40" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C40" s="3">
         <v>2021</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="24" customHeight="1">
+    <row r="41" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C41" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="24.6" customHeight="1">
+    <row r="42" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="C42" s="3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="43" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C43" s="3">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="44" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="C44" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="45" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>158</v>
       </c>
@@ -1888,47 +1903,47 @@
         <v>2020</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="46" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C46" s="3">
         <v>2020</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="34.200000000000003" customHeight="1">
+    <row r="47" spans="1:8" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C47" s="3">
         <v>2022</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="42.6" customHeight="1">
+    <row r="48" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>126</v>
       </c>
@@ -1939,13 +1954,13 @@
         <v>2020</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="25.8" customHeight="1">
+    <row r="49" spans="1:9" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>128</v>
       </c>
@@ -1956,13 +1971,13 @@
         <v>2020</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="33" customHeight="1">
+    <row r="50" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>130</v>
       </c>
@@ -1979,7 +1994,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="32.4" customHeight="1">
+    <row r="51" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>133</v>
       </c>
@@ -1990,13 +2005,13 @@
         <v>2021</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="28.8" customHeight="1">
+    <row r="52" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>135</v>
       </c>
@@ -2013,7 +2028,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="34.200000000000003" customHeight="1">
+    <row r="53" spans="1:9" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>138</v>
       </c>
@@ -2030,7 +2045,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="34.799999999999997" customHeight="1">
+    <row r="54" spans="1:9" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>141</v>
       </c>
@@ -2041,13 +2056,13 @@
         <v>2021</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="39" customHeight="1">
+    <row r="55" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>143</v>
       </c>
@@ -2064,7 +2079,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="36.6" customHeight="1">
+    <row r="56" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>146</v>
       </c>
@@ -2081,7 +2096,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="36.6" customHeight="1">
+    <row r="57" spans="1:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>149</v>
       </c>
@@ -2092,9 +2107,26 @@
         <v>2020</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I57" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="3">
+        <v>2011</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58" s="6" t="s">
         <v>155</v>
       </c>
     </row>

--- a/List of papers.xlsx
+++ b/List of papers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://antarosmedical-my.sharepoint.com/personal/mauro_pappaterra_antarosmedical_com/Documents/P/ITSC2023/List of Papers/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MauroPappaterra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="397" documentId="11_AD4D1D646341095ACB7000A3E557DD62693EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A884D1CB-7CF1-4909-B841-E7B593BAC174}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53418F51-50D1-426E-8C46-9EA1DB952EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -650,13 +650,13 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>274433</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>140186</xdr:rowOff>
+      <xdr:rowOff>140187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>145677</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -671,8 +671,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14640374" y="498774"/>
-          <a:ext cx="6594773" cy="1832050"/>
+          <a:off x="14668613" y="505947"/>
+          <a:ext cx="4350907" cy="1239033"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -702,7 +702,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1800" b="1" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="1" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -716,7 +716,7 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -728,7 +728,7 @@
             <a:t>A = Surveillance and online security monitoring</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -739,7 +739,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -751,7 +751,7 @@
             <a:t>B = Detection of obstacles and foreign oobjects in the railway track</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -762,7 +762,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -774,7 +774,7 @@
             <a:t>C = Intrusion and trespassing detection</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -785,7 +785,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -797,7 +797,7 @@
             <a:t>D = Detection of natural threats</a:t>
           </a:r>
           <a:br>
-            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -808,7 +808,7 @@
             </a:rPr>
           </a:br>
           <a:r>
-            <a:rPr lang="en-GB" sz="1800" b="0" i="0">
+            <a:rPr lang="en-GB" sz="1200" b="0" i="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -822,7 +822,7 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-SE" sz="1100"/>
+          <a:endParaRPr lang="en-SE" sz="900"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1097,8 +1097,8 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K58" sqref="K58"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
